--- a/Data/Processing/2024-02-02/PERSISTENT.xlsx
+++ b/Data/Processing/2024-02-02/PERSISTENT.xlsx
@@ -666,7 +666,7 @@
         <v>4816.93</v>
       </c>
       <c r="C3">
-        <v>4921.28</v>
+        <v>4921.27</v>
       </c>
       <c r="D3">
         <v>4747.29</v>
@@ -2072,7 +2072,7 @@
         <v>4504.61</v>
       </c>
       <c r="E31">
-        <v>4624.95</v>
+        <v>4624.96</v>
       </c>
       <c r="F31">
         <v>4454.7</v>
@@ -2125,7 +2125,7 @@
         <v>4531.5</v>
       </c>
       <c r="F32">
-        <v>4624.95</v>
+        <v>4624.96</v>
       </c>
       <c r="G32">
         <v>234834</v>
@@ -2143,7 +2143,7 @@
         <v>-2.66</v>
       </c>
       <c r="L32">
-        <v>-31.76</v>
+        <v>-31.77</v>
       </c>
       <c r="M32">
         <v>1.3</v>
@@ -2802,7 +2802,7 @@
         <v>1.7</v>
       </c>
       <c r="O45">
-        <v>4688.180454545454</v>
+        <v>4688.180681818182</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>1.42</v>
       </c>
       <c r="O46">
-        <v>4681.234545454545</v>
+        <v>4681.234772727273</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>4325.75</v>
       </c>
       <c r="E47">
-        <v>4366.27</v>
+        <v>4366.26</v>
       </c>
       <c r="F47">
         <v>4517.23</v>
@@ -2925,7 +2925,7 @@
         <v>4180.15</v>
       </c>
       <c r="F48">
-        <v>4366.27</v>
+        <v>4366.26</v>
       </c>
       <c r="G48">
         <v>1323898</v>
@@ -2943,7 +2943,7 @@
         <v>-6.01</v>
       </c>
       <c r="L48">
-        <v>-190.64</v>
+        <v>-190.63</v>
       </c>
       <c r="M48">
         <v>-0.48</v>
@@ -3713,10 +3713,10 @@
         <v>45056</v>
       </c>
       <c r="B64">
-        <v>4698.58</v>
+        <v>4698.57</v>
       </c>
       <c r="C64">
-        <v>4698.58</v>
+        <v>4698.57</v>
       </c>
       <c r="D64">
         <v>4630.47</v>
@@ -3743,7 +3743,7 @@
         <v>-1.47</v>
       </c>
       <c r="L64">
-        <v>30.73</v>
+        <v>30.72</v>
       </c>
       <c r="M64">
         <v>0.3100000000000001</v>
@@ -3822,7 +3822,7 @@
         <v>4599.9</v>
       </c>
       <c r="E66">
-        <v>4624.91</v>
+        <v>4624.9</v>
       </c>
       <c r="F66">
         <v>4640.12</v>
@@ -3852,7 +3852,7 @@
         <v>1.96</v>
       </c>
       <c r="O66">
-        <v>4525.729545454546</v>
+        <v>4525.729318181819</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>4664.13</v>
       </c>
       <c r="F67">
-        <v>4624.91</v>
+        <v>4624.9</v>
       </c>
       <c r="G67">
         <v>155642</v>
@@ -3893,7 +3893,7 @@
         <v>-0.93</v>
       </c>
       <c r="L67">
-        <v>8.050000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="M67">
         <v>-0.21</v>
@@ -3902,7 +3902,7 @@
         <v>1.81</v>
       </c>
       <c r="O67">
-        <v>4521.512272727273</v>
+        <v>4521.512045454546</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>2.95</v>
       </c>
       <c r="O68">
-        <v>4517.588636363636</v>
+        <v>4517.588409090909</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>2.74</v>
       </c>
       <c r="O69">
-        <v>4517.289318181818</v>
+        <v>4517.289090909091</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>2.45</v>
       </c>
       <c r="O70">
-        <v>4517.263409090909</v>
+        <v>4517.263181818182</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>2.73</v>
       </c>
       <c r="O71">
-        <v>4523.277045454545</v>
+        <v>4523.276818181818</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>3.39</v>
       </c>
       <c r="O72">
-        <v>4534.755681818182</v>
+        <v>4534.755454545454</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>3.1</v>
       </c>
       <c r="O73">
-        <v>4544.364318181818</v>
+        <v>4544.364090909091</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>3.34</v>
       </c>
       <c r="O74">
-        <v>4555.345681818182</v>
+        <v>4555.345454545455</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1.54</v>
       </c>
       <c r="O75">
-        <v>4563.808863636364</v>
+        <v>4563.808409090909</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>2.54</v>
       </c>
       <c r="O76">
-        <v>4575.807045454546</v>
+        <v>4575.806590909091</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>1.99</v>
       </c>
       <c r="O77">
-        <v>4588.52159090909</v>
+        <v>4588.521136363637</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>1.49</v>
       </c>
       <c r="O78">
-        <v>4601.6225</v>
+        <v>4601.622045454546</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>2.15</v>
       </c>
       <c r="O79">
-        <v>4617.703636363636</v>
+        <v>4617.703181818182</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4552,7 +4552,7 @@
         <v>2.07</v>
       </c>
       <c r="O80">
-        <v>4636.880454545454</v>
+        <v>4636.88</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="O81">
-        <v>4656.298863636364</v>
+        <v>4656.298409090909</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>1.6</v>
       </c>
       <c r="O82">
-        <v>4674.022727272727</v>
+        <v>4674.022272727273</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>4876.54</v>
       </c>
       <c r="E83">
-        <v>4952.14</v>
+        <v>4952.15</v>
       </c>
       <c r="F83">
         <v>5179.22</v>
@@ -4702,7 +4702,7 @@
         <v>3.79</v>
       </c>
       <c r="O83">
-        <v>4683.947727272727</v>
+        <v>4683.9475</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>4989.43</v>
       </c>
       <c r="F84">
-        <v>4952.14</v>
+        <v>4952.15</v>
       </c>
       <c r="G84">
         <v>229124</v>
@@ -4743,7 +4743,7 @@
         <v>-0.6</v>
       </c>
       <c r="L84">
-        <v>18.85</v>
+        <v>18.84</v>
       </c>
       <c r="M84">
         <v>-0.4</v>
@@ -4752,7 +4752,7 @@
         <v>1.38</v>
       </c>
       <c r="O84">
-        <v>4693.190454545454</v>
+        <v>4693.190227272727</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>2.48</v>
       </c>
       <c r="O85">
-        <v>4702.061363636363</v>
+        <v>4702.061136363636</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>2.55</v>
       </c>
       <c r="O86">
-        <v>4709.657954545455</v>
+        <v>4709.657727272727</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>3.31</v>
       </c>
       <c r="O87">
-        <v>4719.518636363637</v>
+        <v>4719.518409090909</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>2</v>
       </c>
       <c r="O88">
-        <v>4730.148636363637</v>
+        <v>4730.14840909091</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>2.54</v>
       </c>
       <c r="O89">
-        <v>4740.356136363636</v>
+        <v>4740.355909090908</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>45092</v>
       </c>
       <c r="B90">
-        <v>4921.27</v>
+        <v>4921.28</v>
       </c>
       <c r="C90">
         <v>4980.93</v>
@@ -5043,7 +5043,7 @@
         <v>-0.9</v>
       </c>
       <c r="L90">
-        <v>-14.17</v>
+        <v>-14.16</v>
       </c>
       <c r="M90">
         <v>-0.51</v>
@@ -5052,7 +5052,7 @@
         <v>2.1</v>
       </c>
       <c r="O90">
-        <v>4750.312954545455</v>
+        <v>4750.312727272728</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>4970.89</v>
       </c>
       <c r="C94">
-        <v>4970.99</v>
+        <v>4970.98</v>
       </c>
       <c r="D94">
         <v>4899.4</v>
@@ -5616,7 +5616,7 @@
         <v>4846.61</v>
       </c>
       <c r="C102">
-        <v>4859.64</v>
+        <v>4859.63</v>
       </c>
       <c r="D102">
         <v>4794.02</v>
@@ -5952,7 +5952,7 @@
         <v>1.98</v>
       </c>
       <c r="O108">
-        <v>4893.168181818182</v>
+        <v>4893.168181818181</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>3.42</v>
       </c>
       <c r="O110">
-        <v>4901.877272727273</v>
+        <v>4901.8775</v>
       </c>
       <c r="P110">
         <v>1</v>
@@ -6102,7 +6102,7 @@
         <v>3.6</v>
       </c>
       <c r="O111">
-        <v>4908.235</v>
+        <v>4908.235227272728</v>
       </c>
       <c r="P111">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>2.22</v>
       </c>
       <c r="O112">
-        <v>4914.469545454545</v>
+        <v>4914.469772727272</v>
       </c>
       <c r="P112">
         <v>1</v>
@@ -6202,7 +6202,7 @@
         <v>4.47</v>
       </c>
       <c r="O113">
-        <v>4922.269318181819</v>
+        <v>4922.269545454546</v>
       </c>
       <c r="P113">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>2.88</v>
       </c>
       <c r="O114">
-        <v>4929.186590909091</v>
+        <v>4929.186818181818</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>4.79</v>
       </c>
       <c r="O115">
-        <v>4926.281363636363</v>
+        <v>4926.28159090909</v>
       </c>
       <c r="P115">
         <v>1</v>
@@ -6352,7 +6352,7 @@
         <v>2.47</v>
       </c>
       <c r="O116">
-        <v>4920.471363636363</v>
+        <v>4920.471590909091</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>3.11</v>
       </c>
       <c r="O117">
-        <v>4914.659545454545</v>
+        <v>4914.659772727273</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>1.6</v>
       </c>
       <c r="O118">
-        <v>4908.045681818181</v>
+        <v>4908.045909090909</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>2.07</v>
       </c>
       <c r="O119">
-        <v>4901.353181818182</v>
+        <v>4901.35340909091</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>1.7</v>
       </c>
       <c r="O120">
-        <v>4892.716363636363</v>
+        <v>4892.716590909091</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>1.41</v>
       </c>
       <c r="O121">
-        <v>4886.272272727273</v>
+        <v>4886.2725</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -6652,7 +6652,7 @@
         <v>2.57</v>
       </c>
       <c r="O122">
-        <v>4880.563409090909</v>
+        <v>4880.563636363637</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -6702,7 +6702,7 @@
         <v>2.71</v>
       </c>
       <c r="O123">
-        <v>4871.266590909091</v>
+        <v>4871.266818181818</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -6752,7 +6752,7 @@
         <v>1.75</v>
       </c>
       <c r="O124">
-        <v>4860.5925</v>
+        <v>4860.592727272728</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>2.11</v>
       </c>
       <c r="O125">
-        <v>4850.861818181817</v>
+        <v>4850.862045454545</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>2.77</v>
       </c>
       <c r="O126">
-        <v>4843.697954545455</v>
+        <v>4843.698181818182</v>
       </c>
       <c r="P126">
         <v>1</v>
@@ -7152,7 +7152,7 @@
         <v>2.49</v>
       </c>
       <c r="O132">
-        <v>4834.19909090909</v>
+        <v>4834.199090909091</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>3.68</v>
       </c>
       <c r="O180">
-        <v>5683.577499999999</v>
+        <v>5683.5775</v>
       </c>
       <c r="P180">
         <v>1</v>
@@ -10102,7 +10102,7 @@
         <v>1.25</v>
       </c>
       <c r="O191">
-        <v>5891.404545454546</v>
+        <v>5891.404545454545</v>
       </c>
       <c r="P191">
         <v>0</v>
